--- a/data/georgia_census/kakheti/sagarejo/average_wages.xlsx
+++ b/data/georgia_census/kakheti/sagarejo/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35E0E035-D11D-45D2-AB49-2CFADC1BDBFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96952CE5-FDD6-4C57-8CA2-50BB797AC221}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56EB02BB-4B05-43F9-8472-6928F38F35E3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAA00373-9A80-4356-802B-1F020D8F334C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23BED0FC-BF65-479C-A644-AD647EF4BC11}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE5FEA95-FA07-48C6-8010-11FB9D0A4594}"/>
 </file>